--- a/Testset_AUC.xlsx
+++ b/Testset_AUC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HJH\Jupyter Notebook\Psychological-Prediction-AI-Contest-2020\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C53C13AA-4A50-4EBA-8F6C-7ECAF381C564}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02F89BC5-DBDA-4E50-AF69-CB9196DEA488}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7305" yWindow="2490" windowWidth="20115" windowHeight="13020" xr2:uid="{9847B0C5-858B-47B6-9730-E54727051A7F}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="26">
   <si>
     <t>Engnat</t>
   </si>
@@ -114,6 +114,18 @@
   </si>
   <si>
     <t>is10s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -492,10 +504,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBD9EC9E-593A-4203-A41C-E9A7CC7F061E}">
-  <dimension ref="A1:N29"/>
+  <dimension ref="A1:O29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -503,15 +515,21 @@
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="L1" s="1" t="s">
         <v>19</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -551,8 +569,11 @@
       <c r="N2" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O2" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -589,8 +610,11 @@
       <c r="N3" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O3" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -630,8 +654,11 @@
       <c r="N4" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O4" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -674,8 +701,11 @@
       <c r="N5" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O5" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -697,8 +727,11 @@
       <c r="N6" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O6" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
@@ -711,8 +744,11 @@
       <c r="J7" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O7" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
@@ -752,8 +788,11 @@
       <c r="N8" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O8" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>12</v>
       </c>
@@ -763,8 +802,11 @@
       <c r="N9" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O9" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>6</v>
       </c>
@@ -804,8 +846,11 @@
       <c r="N10" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O10" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>7</v>
       </c>
@@ -842,8 +887,11 @@
       <c r="N11" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O11" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>8</v>
       </c>
@@ -886,8 +934,11 @@
       <c r="N12" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O12" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>9</v>
       </c>
@@ -930,8 +981,11 @@
       <c r="N13" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O13" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>16</v>
       </c>
@@ -939,7 +993,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>10</v>
       </c>
@@ -982,8 +1036,11 @@
       <c r="N15" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O15" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>18</v>
       </c>
@@ -1026,8 +1083,11 @@
       <c r="N16" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O16" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>13</v>
       </c>
@@ -1070,8 +1130,11 @@
       <c r="N21" s="1">
         <v>0.72330000000000005</v>
       </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O21" s="1">
+        <v>0.73450000000000004</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B22" s="2"/>
       <c r="C22" s="2">
         <v>0.69420000000000004</v>
@@ -1090,7 +1153,7 @@
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B23" s="2"/>
       <c r="C23" s="2">
         <v>0.71499999999999997</v>
@@ -1109,7 +1172,7 @@
       <c r="K23" s="2"/>
       <c r="L23" s="2"/>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B24" s="2"/>
       <c r="C24" s="2">
         <v>0.7006</v>
@@ -1128,7 +1191,7 @@
       <c r="K24" s="2"/>
       <c r="L24" s="2"/>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
@@ -1143,7 +1206,7 @@
       <c r="K25" s="2"/>
       <c r="L25" s="2"/>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
@@ -1158,7 +1221,7 @@
       <c r="K26" s="2"/>
       <c r="L26" s="2"/>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
@@ -1171,7 +1234,7 @@
       <c r="K27" s="2"/>
       <c r="L27" s="2"/>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
@@ -1184,7 +1247,7 @@
       <c r="K28" s="2"/>
       <c r="L28" s="2"/>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>17</v>
       </c>

--- a/Testset_AUC.xlsx
+++ b/Testset_AUC.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HJH\Jupyter Notebook\Psychological-Prediction-AI-Contest-2020\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02F89BC5-DBDA-4E50-AF69-CB9196DEA488}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9EBF33F-D87D-448A-8FD1-90680C3695AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7305" yWindow="2490" windowWidth="20115" windowHeight="13020" xr2:uid="{9847B0C5-858B-47B6-9730-E54727051A7F}"/>
+    <workbookView xWindow="5010" yWindow="2520" windowWidth="20115" windowHeight="13020" xr2:uid="{9847B0C5-858B-47B6-9730-E54727051A7F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="23">
   <si>
     <t>Engnat</t>
   </si>
@@ -85,10 +85,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>O(time)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>hand</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -101,7 +97,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>time 개선</t>
+    <t>is10s</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -109,23 +105,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>drop 개선</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>is10s</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>V13</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>V12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>O</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V13_(YT)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V13_(NT)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -504,10 +492,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBD9EC9E-593A-4203-A41C-E9A7CC7F061E}">
-  <dimension ref="A1:O29"/>
+  <dimension ref="A1:L29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O15" sqref="O15"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -515,150 +503,54 @@
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="L1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="M1" s="1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="D2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="E2" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="D3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="C4" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="D4" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="E4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -668,90 +560,39 @@
       <c r="C5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="E5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="L5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="M5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="N5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="O5" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="N6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="O6" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="D6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="O7" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="D7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="B8" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="C8" s="1" t="s">
         <v>14</v>
       </c>
@@ -761,52 +602,19 @@
       <c r="E8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="M8" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="N8" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="O8" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="N9" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="O9" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="D9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>6</v>
       </c>
@@ -822,76 +630,22 @@
       <c r="E10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F10" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="L10" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="M10" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="N10" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="O10" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="C11" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="D11" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="E11" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F11" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="L11" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="M11" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="N11" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="O11" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>8</v>
       </c>
@@ -907,38 +661,8 @@
       <c r="E12" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F12" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="L12" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="M12" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="N12" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="O12" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>9</v>
       </c>
@@ -949,51 +673,18 @@
         <v>14</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K13" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="L13" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="M13" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="N13" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="O13" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1009,40 +700,10 @@
       <c r="E15" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F15" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K15" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="L15" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="M15" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="N15" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="O15" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>14</v>
@@ -1056,172 +717,95 @@
       <c r="E16" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F16" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K16" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="L16" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="M16" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="N16" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="O16" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B21" s="2">
-        <v>0.70579999999999998</v>
+        <v>0.70809999999999995</v>
       </c>
       <c r="C21" s="2">
-        <v>0.71630000000000005</v>
-      </c>
-      <c r="D21" s="2">
-        <v>0.70809999999999995</v>
-      </c>
-      <c r="E21" s="2">
         <v>0.70569999999999999</v>
       </c>
-      <c r="F21" s="2">
-        <v>0.68789999999999996</v>
-      </c>
-      <c r="G21" s="2">
-        <v>0.69</v>
-      </c>
-      <c r="H21" s="2">
-        <v>0.71850000000000003</v>
-      </c>
-      <c r="I21" s="2">
-        <v>0.70089999999999997</v>
-      </c>
-      <c r="J21" s="2">
-        <v>0.70499999999999996</v>
-      </c>
-      <c r="K21" s="2">
-        <v>0.70009999999999994</v>
-      </c>
-      <c r="L21" s="2">
-        <v>0.69740000000000002</v>
-      </c>
-      <c r="M21" s="1">
-        <v>0.71150000000000002</v>
-      </c>
-      <c r="N21" s="1">
+      <c r="D21" s="1">
+        <v>0.72829999999999995</v>
+      </c>
+      <c r="E21" s="1">
         <v>0.72330000000000005</v>
       </c>
-      <c r="O21" s="1">
-        <v>0.73450000000000004</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B22" s="2"/>
-      <c r="C22" s="2">
-        <v>0.69420000000000004</v>
-      </c>
-      <c r="D22" s="2">
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B22" s="2">
         <v>0.69940000000000002</v>
       </c>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
       <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2">
-        <v>0.70840000000000003</v>
-      </c>
+      <c r="H22" s="2"/>
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B23" s="2"/>
-      <c r="C23" s="2">
-        <v>0.71499999999999997</v>
-      </c>
-      <c r="D23" s="2">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B23" s="2">
         <v>0.69289999999999996</v>
       </c>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
       <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2">
-        <v>0.7137</v>
-      </c>
+      <c r="H23" s="2"/>
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
       <c r="L23" s="2"/>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B24" s="2"/>
-      <c r="C24" s="2">
-        <v>0.7006</v>
-      </c>
-      <c r="D24" s="2">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B24" s="2">
         <v>0.70369999999999999</v>
       </c>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
       <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2">
-        <v>0.71950000000000003</v>
-      </c>
+      <c r="H24" s="2"/>
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
       <c r="L24" s="2"/>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
-      <c r="H25" s="2">
-        <v>0.70499999999999996</v>
-      </c>
+      <c r="H25" s="2"/>
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
       <c r="L25" s="2"/>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
-      <c r="H26" s="2">
-        <v>0.71360000000000001</v>
-      </c>
+      <c r="H26" s="2"/>
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
       <c r="L26" s="2"/>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
@@ -1234,7 +818,7 @@
       <c r="K27" s="2"/>
       <c r="L27" s="2"/>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
@@ -1247,13 +831,13 @@
       <c r="K28" s="2"/>
       <c r="L28" s="2"/>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B29" s="2">
-        <f>MAX(B21:N28)</f>
-        <v>0.72330000000000005</v>
+        <f>MAX(B21:V28)</f>
+        <v>0.72829999999999995</v>
       </c>
     </row>
   </sheetData>

--- a/Testset_AUC.xlsx
+++ b/Testset_AUC.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HJH\Jupyter Notebook\Psychological-Prediction-AI-Contest-2020\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9EBF33F-D87D-448A-8FD1-90680C3695AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{854B50A9-84AE-4254-9FC7-E76AF5CDF842}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5010" yWindow="2520" windowWidth="20115" windowHeight="13020" xr2:uid="{9847B0C5-858B-47B6-9730-E54727051A7F}"/>
+    <workbookView xWindow="5670" yWindow="1920" windowWidth="20115" windowHeight="13020" xr2:uid="{9847B0C5-858B-47B6-9730-E54727051A7F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="28">
   <si>
     <t>Engnat</t>
   </si>
@@ -114,6 +114,26 @@
   </si>
   <si>
     <t>V13_(NT)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wr(1,3,5,6,9,11)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O(label)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V15</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -495,23 +515,30 @@
   <dimension ref="A1:L29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="11.875" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="D1" s="1" t="s">
         <v>22</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -524,8 +551,11 @@
       <c r="E2" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F2" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -535,8 +565,11 @@
       <c r="E3" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F3" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -549,8 +582,11 @@
       <c r="E4" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F4" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -563,8 +599,11 @@
       <c r="E5" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F5" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -574,8 +613,11 @@
       <c r="E6" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F6" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
@@ -585,8 +627,11 @@
       <c r="E7" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F7" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
@@ -602,8 +647,11 @@
       <c r="E8" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F8" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>12</v>
       </c>
@@ -613,8 +661,11 @@
       <c r="E9" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F9" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>6</v>
       </c>
@@ -630,8 +681,11 @@
       <c r="E10" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F10" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>7</v>
       </c>
@@ -644,8 +698,11 @@
       <c r="E11" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F11" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>8</v>
       </c>
@@ -661,8 +718,11 @@
       <c r="E12" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F12" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>9</v>
       </c>
@@ -678,13 +738,16 @@
       <c r="E13" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F13" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>10</v>
       </c>
@@ -700,8 +763,11 @@
       <c r="E15" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F15" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>17</v>
       </c>
@@ -716,6 +782,22 @@
       </c>
       <c r="E16" s="1" t="s">
         <v>14</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="F20" s="1">
+        <v>0.9607</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">

--- a/Testset_AUC.xlsx
+++ b/Testset_AUC.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HJH\Jupyter Notebook\Psychological-Prediction-AI-Contest-2020\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{854B50A9-84AE-4254-9FC7-E76AF5CDF842}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E848541-87D5-475E-81ED-A88C2841B94A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5670" yWindow="1920" windowWidth="20115" windowHeight="13020" xr2:uid="{9847B0C5-858B-47B6-9730-E54727051A7F}"/>
+    <workbookView xWindow="11250" yWindow="2070" windowWidth="20115" windowHeight="13020" xr2:uid="{9847B0C5-858B-47B6-9730-E54727051A7F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="29">
   <si>
     <t>Engnat</t>
   </si>
@@ -134,6 +134,10 @@
   </si>
   <si>
     <t>V15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ACC</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -515,7 +519,7 @@
   <dimension ref="A1:L29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -813,7 +817,7 @@
       <c r="D21" s="1">
         <v>0.72829999999999995</v>
       </c>
-      <c r="E21" s="1">
+      <c r="E21" s="2">
         <v>0.72330000000000005</v>
       </c>
       <c r="H21" s="2"/>
@@ -828,7 +832,9 @@
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
+      <c r="E22" s="2">
+        <v>0.73229999999999995</v>
+      </c>
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
@@ -875,10 +881,15 @@
       <c r="L25" s="2"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A26" s="2" t="s">
+        <v>28</v>
+      </c>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
+      <c r="E26" s="2">
+        <v>0.72399999999999998</v>
+      </c>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
@@ -919,7 +930,7 @@
       </c>
       <c r="B29" s="2">
         <f>MAX(B21:V28)</f>
-        <v>0.72829999999999995</v>
+        <v>0.73229999999999995</v>
       </c>
     </row>
   </sheetData>
